--- a/templates/vaccume.xlsx
+++ b/templates/vaccume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\react projects\nokia\git\Nokia-API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\react projects\nokia\Nokia-DWS-main\Backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110CCFB5-1409-4DE8-8AD3-88EEF48229F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5D4004-36F8-4DED-BF9B-7C907222D86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,12 +173,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -187,21 +252,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -527,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,20 +665,20 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -689,81 +788,92 @@
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N20" t="s">
-        <v>26</v>
-      </c>
+      <c r="N20" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="L10:T15"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="A7:E8"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="N19:N20"/>
   </mergeCells>
+  <conditionalFormatting sqref="A21:N1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{37FAF1AC-5547-4C8B-B53B-377EACF0DB70}"/>
   </hyperlinks>
